--- a/Source Data/Notes/PBC End of Project Evaluation - 2015_Annotated.xlsx
+++ b/Source Data/Notes/PBC End of Project Evaluation - 2015_Annotated.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PBC End of Project Evaluation -" sheetId="1" r:id="rId1"/>
     <sheet name="Names" sheetId="3" r:id="rId2"/>
+    <sheet name="Cheaters Heatmap" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14689" uniqueCount="2295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14700" uniqueCount="2295">
   <si>
     <t>RespondentID</t>
   </si>
@@ -7722,8 +7723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV312"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7732,8 +7733,11 @@
     <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="185.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" customWidth="1"/>
+    <col min="17" max="17" width="52.85546875" customWidth="1"/>
     <col min="21" max="21" width="73.28515625" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" customWidth="1"/>
+    <col min="24" max="24" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
@@ -57497,8 +57501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57719,7 +57723,7 @@
         <f t="shared" si="0"/>
         <v>pbc_15</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
@@ -58470,4 +58474,8731 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K311"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <v>4</v>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+      <c r="J68">
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+      <c r="K71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+      <c r="K75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+      <c r="K76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+      <c r="K78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>4</v>
+      </c>
+      <c r="I79">
+        <v>4</v>
+      </c>
+      <c r="K79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+      <c r="K80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <v>5</v>
+      </c>
+      <c r="K82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>5</v>
+      </c>
+      <c r="K84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+      <c r="J87">
+        <v>5</v>
+      </c>
+      <c r="K87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>3</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90">
+        <v>4</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>5</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93">
+        <v>4</v>
+      </c>
+      <c r="I93">
+        <v>4</v>
+      </c>
+      <c r="J93">
+        <v>4</v>
+      </c>
+      <c r="K93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+      <c r="J95">
+        <v>5</v>
+      </c>
+      <c r="K95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>4</v>
+      </c>
+      <c r="J97">
+        <v>4</v>
+      </c>
+      <c r="K97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>4</v>
+      </c>
+      <c r="J98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>4</v>
+      </c>
+      <c r="J99">
+        <v>4</v>
+      </c>
+      <c r="K99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100">
+        <v>4</v>
+      </c>
+      <c r="H100">
+        <v>4</v>
+      </c>
+      <c r="I100">
+        <v>4</v>
+      </c>
+      <c r="K100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="H101">
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102">
+        <v>3</v>
+      </c>
+      <c r="K102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>4</v>
+      </c>
+      <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103">
+        <v>3</v>
+      </c>
+      <c r="K103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <v>4</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="I105">
+        <v>4</v>
+      </c>
+      <c r="J105">
+        <v>3</v>
+      </c>
+      <c r="K105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="I106">
+        <v>5</v>
+      </c>
+      <c r="J106">
+        <v>4</v>
+      </c>
+      <c r="K106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="K107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>3</v>
+      </c>
+      <c r="I108">
+        <v>3</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109">
+        <v>5</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
+        <v>4</v>
+      </c>
+      <c r="J109">
+        <v>4</v>
+      </c>
+      <c r="K109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>4</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>3</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>5</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <v>4</v>
+      </c>
+      <c r="K114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>5</v>
+      </c>
+      <c r="F115">
+        <v>5</v>
+      </c>
+      <c r="G115">
+        <v>5</v>
+      </c>
+      <c r="H115">
+        <v>5</v>
+      </c>
+      <c r="I115">
+        <v>5</v>
+      </c>
+      <c r="J115">
+        <v>5</v>
+      </c>
+      <c r="K115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="H117">
+        <v>3</v>
+      </c>
+      <c r="J117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>4</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>3</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118">
+        <v>3</v>
+      </c>
+      <c r="K118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>4</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+      <c r="G119">
+        <v>4</v>
+      </c>
+      <c r="H119">
+        <v>4</v>
+      </c>
+      <c r="I119">
+        <v>4</v>
+      </c>
+      <c r="J119">
+        <v>4</v>
+      </c>
+      <c r="K119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="H120">
+        <v>4</v>
+      </c>
+      <c r="I120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="G121">
+        <v>5</v>
+      </c>
+      <c r="H121">
+        <v>5</v>
+      </c>
+      <c r="I121">
+        <v>3</v>
+      </c>
+      <c r="J121">
+        <v>3</v>
+      </c>
+      <c r="K121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>4</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>4</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+      <c r="F123">
+        <v>4</v>
+      </c>
+      <c r="G123">
+        <v>4</v>
+      </c>
+      <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
+        <v>3</v>
+      </c>
+      <c r="J123">
+        <v>3</v>
+      </c>
+      <c r="K123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124">
+        <v>3</v>
+      </c>
+      <c r="K124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>5</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+      <c r="H125">
+        <v>5</v>
+      </c>
+      <c r="I125">
+        <v>5</v>
+      </c>
+      <c r="J125">
+        <v>5</v>
+      </c>
+      <c r="K125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126">
+        <v>5</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>5</v>
+      </c>
+      <c r="K126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="I127">
+        <v>3</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+      <c r="F128">
+        <v>5</v>
+      </c>
+      <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128">
+        <v>3</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+      <c r="H129">
+        <v>5</v>
+      </c>
+      <c r="I129">
+        <v>5</v>
+      </c>
+      <c r="J129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>4</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+      <c r="F130">
+        <v>3</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130">
+        <v>3</v>
+      </c>
+      <c r="I130">
+        <v>3</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>4</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+      <c r="H132">
+        <v>3</v>
+      </c>
+      <c r="K132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>5</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133">
+        <v>5</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133">
+        <v>3</v>
+      </c>
+      <c r="I133">
+        <v>5</v>
+      </c>
+      <c r="J133">
+        <v>5</v>
+      </c>
+      <c r="K133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+      <c r="H134">
+        <v>5</v>
+      </c>
+      <c r="I134">
+        <v>4</v>
+      </c>
+      <c r="J134">
+        <v>4</v>
+      </c>
+      <c r="K134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+      <c r="F135">
+        <v>5</v>
+      </c>
+      <c r="G135">
+        <v>5</v>
+      </c>
+      <c r="H135">
+        <v>5</v>
+      </c>
+      <c r="I135">
+        <v>5</v>
+      </c>
+      <c r="J135">
+        <v>5</v>
+      </c>
+      <c r="K135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>5</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>5</v>
+      </c>
+      <c r="G136">
+        <v>5</v>
+      </c>
+      <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136">
+        <v>5</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>4</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
+      <c r="F137">
+        <v>4</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+      <c r="H137">
+        <v>4</v>
+      </c>
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137">
+        <v>3</v>
+      </c>
+      <c r="K137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>4</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>4</v>
+      </c>
+      <c r="I138">
+        <v>4</v>
+      </c>
+      <c r="J138">
+        <v>5</v>
+      </c>
+      <c r="K138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>4</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>4</v>
+      </c>
+      <c r="E139">
+        <v>5</v>
+      </c>
+      <c r="K139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>5</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>5</v>
+      </c>
+      <c r="F140">
+        <v>5</v>
+      </c>
+      <c r="G140">
+        <v>4</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>3</v>
+      </c>
+      <c r="K140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>4</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+      <c r="F141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+      <c r="F142">
+        <v>5</v>
+      </c>
+      <c r="H142">
+        <v>5</v>
+      </c>
+      <c r="I142">
+        <v>5</v>
+      </c>
+      <c r="J142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>4</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+      <c r="E143">
+        <v>5</v>
+      </c>
+      <c r="F143">
+        <v>5</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="H145">
+        <v>3</v>
+      </c>
+      <c r="J145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="H146">
+        <v>4</v>
+      </c>
+      <c r="K146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>5</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>5</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
+      <c r="F147">
+        <v>5</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+      <c r="H147">
+        <v>4</v>
+      </c>
+      <c r="I147">
+        <v>5</v>
+      </c>
+      <c r="J147">
+        <v>5</v>
+      </c>
+      <c r="K147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>4</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148">
+        <v>3</v>
+      </c>
+      <c r="J148">
+        <v>3</v>
+      </c>
+      <c r="K148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>4</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>5</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+      <c r="F149">
+        <v>5</v>
+      </c>
+      <c r="G149">
+        <v>4</v>
+      </c>
+      <c r="H149">
+        <v>5</v>
+      </c>
+      <c r="I149">
+        <v>5</v>
+      </c>
+      <c r="J149">
+        <v>4</v>
+      </c>
+      <c r="K149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>4</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>5</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
+      </c>
+      <c r="G150">
+        <v>3</v>
+      </c>
+      <c r="H150">
+        <v>3</v>
+      </c>
+      <c r="I150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>5</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
+      </c>
+      <c r="E151">
+        <v>4</v>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+      <c r="G151">
+        <v>5</v>
+      </c>
+      <c r="H151">
+        <v>4</v>
+      </c>
+      <c r="I151">
+        <v>3</v>
+      </c>
+      <c r="J151">
+        <v>3</v>
+      </c>
+      <c r="K151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>4</v>
+      </c>
+      <c r="B152">
+        <v>5</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>5</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152">
+        <v>3</v>
+      </c>
+      <c r="H152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>4</v>
+      </c>
+      <c r="B153">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>4</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>4</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153">
+        <v>4</v>
+      </c>
+      <c r="H153">
+        <v>5</v>
+      </c>
+      <c r="I153">
+        <v>5</v>
+      </c>
+      <c r="J153">
+        <v>5</v>
+      </c>
+      <c r="K153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>4</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154">
+        <v>4</v>
+      </c>
+      <c r="J154">
+        <v>2</v>
+      </c>
+      <c r="K154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>5</v>
+      </c>
+      <c r="H156">
+        <v>5</v>
+      </c>
+      <c r="I156">
+        <v>5</v>
+      </c>
+      <c r="K156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>5</v>
+      </c>
+      <c r="G157">
+        <v>3</v>
+      </c>
+      <c r="H157">
+        <v>3</v>
+      </c>
+      <c r="K157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+      <c r="E158">
+        <v>4</v>
+      </c>
+      <c r="F158">
+        <v>3</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+      <c r="H158">
+        <v>4</v>
+      </c>
+      <c r="I158">
+        <v>4</v>
+      </c>
+      <c r="J158">
+        <v>2</v>
+      </c>
+      <c r="K158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>5</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <v>5</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159">
+        <v>5</v>
+      </c>
+      <c r="H159">
+        <v>5</v>
+      </c>
+      <c r="I159">
+        <v>5</v>
+      </c>
+      <c r="J159">
+        <v>5</v>
+      </c>
+      <c r="K159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="E160">
+        <v>5</v>
+      </c>
+      <c r="G160">
+        <v>5</v>
+      </c>
+      <c r="H160">
+        <v>5</v>
+      </c>
+      <c r="I160">
+        <v>5</v>
+      </c>
+      <c r="J160">
+        <v>5</v>
+      </c>
+      <c r="K160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="E161">
+        <v>5</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="G161">
+        <v>5</v>
+      </c>
+      <c r="H161">
+        <v>5</v>
+      </c>
+      <c r="I161">
+        <v>4</v>
+      </c>
+      <c r="J161">
+        <v>5</v>
+      </c>
+      <c r="K161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>5</v>
+      </c>
+      <c r="F162">
+        <v>5</v>
+      </c>
+      <c r="H162">
+        <v>5</v>
+      </c>
+      <c r="I162">
+        <v>5</v>
+      </c>
+      <c r="J162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>5</v>
+      </c>
+      <c r="B163">
+        <v>5</v>
+      </c>
+      <c r="C163">
+        <v>5</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="E163">
+        <v>5</v>
+      </c>
+      <c r="F163">
+        <v>5</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+      <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="I163">
+        <v>5</v>
+      </c>
+      <c r="J163">
+        <v>3</v>
+      </c>
+      <c r="K163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>4</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164">
+        <v>4</v>
+      </c>
+      <c r="F164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="F165">
+        <v>5</v>
+      </c>
+      <c r="H165">
+        <v>3</v>
+      </c>
+      <c r="J165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>5</v>
+      </c>
+      <c r="F166">
+        <v>4</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <v>5</v>
+      </c>
+      <c r="I166">
+        <v>4</v>
+      </c>
+      <c r="J166">
+        <v>4</v>
+      </c>
+      <c r="K166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>3</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+      <c r="F167">
+        <v>4</v>
+      </c>
+      <c r="G167">
+        <v>2</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+      <c r="E168">
+        <v>5</v>
+      </c>
+      <c r="F168">
+        <v>4</v>
+      </c>
+      <c r="G168">
+        <v>5</v>
+      </c>
+      <c r="H168">
+        <v>5</v>
+      </c>
+      <c r="I168">
+        <v>4</v>
+      </c>
+      <c r="J168">
+        <v>4</v>
+      </c>
+      <c r="K168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="D169">
+        <v>4</v>
+      </c>
+      <c r="E169">
+        <v>4</v>
+      </c>
+      <c r="F169">
+        <v>4</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+      <c r="H169">
+        <v>4</v>
+      </c>
+      <c r="K169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>4</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>5</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+      <c r="E170">
+        <v>5</v>
+      </c>
+      <c r="F170">
+        <v>5</v>
+      </c>
+      <c r="G170">
+        <v>4</v>
+      </c>
+      <c r="H170">
+        <v>4</v>
+      </c>
+      <c r="I170">
+        <v>3</v>
+      </c>
+      <c r="J170">
+        <v>4</v>
+      </c>
+      <c r="K170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+      <c r="E171">
+        <v>5</v>
+      </c>
+      <c r="F171">
+        <v>4</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="I171">
+        <v>3</v>
+      </c>
+      <c r="J171">
+        <v>3</v>
+      </c>
+      <c r="K171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="D172">
+        <v>4</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+      <c r="F172">
+        <v>4</v>
+      </c>
+      <c r="K172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+      <c r="E173">
+        <v>5</v>
+      </c>
+      <c r="F173">
+        <v>4</v>
+      </c>
+      <c r="G173">
+        <v>4</v>
+      </c>
+      <c r="H173">
+        <v>4</v>
+      </c>
+      <c r="I173">
+        <v>3</v>
+      </c>
+      <c r="J173">
+        <v>5</v>
+      </c>
+      <c r="K173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>3</v>
+      </c>
+      <c r="B174">
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+      <c r="F174">
+        <v>5</v>
+      </c>
+      <c r="G174">
+        <v>3</v>
+      </c>
+      <c r="H174">
+        <v>5</v>
+      </c>
+      <c r="I174">
+        <v>3</v>
+      </c>
+      <c r="J174">
+        <v>2</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>4</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
+      </c>
+      <c r="H175">
+        <v>3</v>
+      </c>
+      <c r="I175">
+        <v>4</v>
+      </c>
+      <c r="J175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>4</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176">
+        <v>5</v>
+      </c>
+      <c r="F176">
+        <v>5</v>
+      </c>
+      <c r="G176">
+        <v>2</v>
+      </c>
+      <c r="H176">
+        <v>4</v>
+      </c>
+      <c r="I176">
+        <v>3</v>
+      </c>
+      <c r="J176">
+        <v>3</v>
+      </c>
+      <c r="K176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>5</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>5</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>5</v>
+      </c>
+      <c r="F177">
+        <v>5</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+      <c r="H177">
+        <v>5</v>
+      </c>
+      <c r="I177">
+        <v>4</v>
+      </c>
+      <c r="J177">
+        <v>3</v>
+      </c>
+      <c r="K177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+      <c r="E178">
+        <v>5</v>
+      </c>
+      <c r="F178">
+        <v>5</v>
+      </c>
+      <c r="G178">
+        <v>5</v>
+      </c>
+      <c r="H178">
+        <v>5</v>
+      </c>
+      <c r="I178">
+        <v>5</v>
+      </c>
+      <c r="K178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>5</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="H179">
+        <v>4</v>
+      </c>
+      <c r="I179">
+        <v>5</v>
+      </c>
+      <c r="K179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>3</v>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>3</v>
+      </c>
+      <c r="E180">
+        <v>4</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
+      <c r="G180">
+        <v>4</v>
+      </c>
+      <c r="H180">
+        <v>4</v>
+      </c>
+      <c r="I180">
+        <v>5</v>
+      </c>
+      <c r="K180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>4</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
+      </c>
+      <c r="H181">
+        <v>3</v>
+      </c>
+      <c r="I181">
+        <v>4</v>
+      </c>
+      <c r="K181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>5</v>
+      </c>
+      <c r="B182">
+        <v>5</v>
+      </c>
+      <c r="D182">
+        <v>5</v>
+      </c>
+      <c r="E182">
+        <v>5</v>
+      </c>
+      <c r="F182">
+        <v>5</v>
+      </c>
+      <c r="G182">
+        <v>3</v>
+      </c>
+      <c r="H182">
+        <v>4</v>
+      </c>
+      <c r="J182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183">
+        <v>2</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>3</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>5</v>
+      </c>
+      <c r="E184">
+        <v>5</v>
+      </c>
+      <c r="F184">
+        <v>5</v>
+      </c>
+      <c r="G184">
+        <v>2</v>
+      </c>
+      <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
+        <v>5</v>
+      </c>
+      <c r="J184">
+        <v>5</v>
+      </c>
+      <c r="K184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>3</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>4</v>
+      </c>
+      <c r="E185">
+        <v>5</v>
+      </c>
+      <c r="F185">
+        <v>3</v>
+      </c>
+      <c r="G185">
+        <v>3</v>
+      </c>
+      <c r="H185">
+        <v>4</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>4</v>
+      </c>
+      <c r="K185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>5</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>5</v>
+      </c>
+      <c r="E186">
+        <v>5</v>
+      </c>
+      <c r="F186">
+        <v>5</v>
+      </c>
+      <c r="G186">
+        <v>2</v>
+      </c>
+      <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186">
+        <v>2</v>
+      </c>
+      <c r="K186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>5</v>
+      </c>
+      <c r="B187">
+        <v>5</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+      <c r="E187">
+        <v>5</v>
+      </c>
+      <c r="F187">
+        <v>4</v>
+      </c>
+      <c r="J187">
+        <v>4</v>
+      </c>
+      <c r="K187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>5</v>
+      </c>
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>5</v>
+      </c>
+      <c r="D188">
+        <v>5</v>
+      </c>
+      <c r="E188">
+        <v>5</v>
+      </c>
+      <c r="F188">
+        <v>5</v>
+      </c>
+      <c r="G188">
+        <v>4</v>
+      </c>
+      <c r="H188">
+        <v>4</v>
+      </c>
+      <c r="I188">
+        <v>3</v>
+      </c>
+      <c r="J188">
+        <v>4</v>
+      </c>
+      <c r="K188">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>5</v>
+      </c>
+      <c r="B189">
+        <v>5</v>
+      </c>
+      <c r="C189">
+        <v>4</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+      <c r="E189">
+        <v>5</v>
+      </c>
+      <c r="F189">
+        <v>5</v>
+      </c>
+      <c r="G189">
+        <v>3</v>
+      </c>
+      <c r="H189">
+        <v>5</v>
+      </c>
+      <c r="I189">
+        <v>5</v>
+      </c>
+      <c r="J189">
+        <v>5</v>
+      </c>
+      <c r="K189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>5</v>
+      </c>
+      <c r="I190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>5</v>
+      </c>
+      <c r="B191">
+        <v>5</v>
+      </c>
+      <c r="C191">
+        <v>4</v>
+      </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
+      <c r="E191">
+        <v>5</v>
+      </c>
+      <c r="F191">
+        <v>5</v>
+      </c>
+      <c r="G191">
+        <v>3</v>
+      </c>
+      <c r="H191">
+        <v>3</v>
+      </c>
+      <c r="I191">
+        <v>4</v>
+      </c>
+      <c r="K191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>5</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
+      </c>
+      <c r="E192">
+        <v>5</v>
+      </c>
+      <c r="F192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>4</v>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
+      <c r="D193">
+        <v>5</v>
+      </c>
+      <c r="E193">
+        <v>5</v>
+      </c>
+      <c r="F193">
+        <v>3</v>
+      </c>
+      <c r="G193">
+        <v>3</v>
+      </c>
+      <c r="H193">
+        <v>3</v>
+      </c>
+      <c r="I193">
+        <v>5</v>
+      </c>
+      <c r="J193">
+        <v>5</v>
+      </c>
+      <c r="K193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>4</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+      <c r="D194">
+        <v>4</v>
+      </c>
+      <c r="E194">
+        <v>4</v>
+      </c>
+      <c r="F194">
+        <v>4</v>
+      </c>
+      <c r="G194">
+        <v>4</v>
+      </c>
+      <c r="H194">
+        <v>5</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>4</v>
+      </c>
+      <c r="E195">
+        <v>5</v>
+      </c>
+      <c r="F195">
+        <v>3</v>
+      </c>
+      <c r="G195">
+        <v>4</v>
+      </c>
+      <c r="H195">
+        <v>4</v>
+      </c>
+      <c r="I195">
+        <v>4</v>
+      </c>
+      <c r="J195">
+        <v>4</v>
+      </c>
+      <c r="K195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>5</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>5</v>
+      </c>
+      <c r="D196">
+        <v>5</v>
+      </c>
+      <c r="E196">
+        <v>5</v>
+      </c>
+      <c r="F196">
+        <v>5</v>
+      </c>
+      <c r="G196">
+        <v>4</v>
+      </c>
+      <c r="H196">
+        <v>3</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+      <c r="D197">
+        <v>5</v>
+      </c>
+      <c r="E197">
+        <v>5</v>
+      </c>
+      <c r="F197">
+        <v>3</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>2</v>
+      </c>
+      <c r="I197">
+        <v>4</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>5</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <v>4</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198">
+        <v>5</v>
+      </c>
+      <c r="F198">
+        <v>4</v>
+      </c>
+      <c r="G198">
+        <v>3</v>
+      </c>
+      <c r="H198">
+        <v>3</v>
+      </c>
+      <c r="I198">
+        <v>4</v>
+      </c>
+      <c r="J198">
+        <v>3</v>
+      </c>
+      <c r="K198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>5</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>4</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+      <c r="E199">
+        <v>5</v>
+      </c>
+      <c r="F199">
+        <v>3</v>
+      </c>
+      <c r="G199">
+        <v>2</v>
+      </c>
+      <c r="H199">
+        <v>2</v>
+      </c>
+      <c r="I199">
+        <v>3</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>4</v>
+      </c>
+      <c r="F200">
+        <v>3</v>
+      </c>
+      <c r="G200">
+        <v>4</v>
+      </c>
+      <c r="H200">
+        <v>4</v>
+      </c>
+      <c r="I200">
+        <v>4</v>
+      </c>
+      <c r="K200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>5</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
+      </c>
+      <c r="E201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>4</v>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>4</v>
+      </c>
+      <c r="D202">
+        <v>4</v>
+      </c>
+      <c r="E202">
+        <v>4</v>
+      </c>
+      <c r="F202">
+        <v>4</v>
+      </c>
+      <c r="G202">
+        <v>4</v>
+      </c>
+      <c r="H202">
+        <v>4</v>
+      </c>
+      <c r="I202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>5</v>
+      </c>
+      <c r="B203">
+        <v>5</v>
+      </c>
+      <c r="C203">
+        <v>4</v>
+      </c>
+      <c r="D203">
+        <v>5</v>
+      </c>
+      <c r="E203">
+        <v>5</v>
+      </c>
+      <c r="F203">
+        <v>5</v>
+      </c>
+      <c r="G203">
+        <v>3</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
+      </c>
+      <c r="I203">
+        <v>3</v>
+      </c>
+      <c r="J203">
+        <v>2</v>
+      </c>
+      <c r="K203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>5</v>
+      </c>
+      <c r="B204">
+        <v>5</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+      <c r="D204">
+        <v>5</v>
+      </c>
+      <c r="E204">
+        <v>5</v>
+      </c>
+      <c r="F204">
+        <v>5</v>
+      </c>
+      <c r="H204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>5</v>
+      </c>
+      <c r="D205">
+        <v>5</v>
+      </c>
+      <c r="E205">
+        <v>5</v>
+      </c>
+      <c r="F205">
+        <v>5</v>
+      </c>
+      <c r="G205">
+        <v>5</v>
+      </c>
+      <c r="H205">
+        <v>5</v>
+      </c>
+      <c r="I205">
+        <v>5</v>
+      </c>
+      <c r="K205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>4</v>
+      </c>
+      <c r="D206">
+        <v>5</v>
+      </c>
+      <c r="E206">
+        <v>5</v>
+      </c>
+      <c r="F206">
+        <v>4</v>
+      </c>
+      <c r="G206">
+        <v>3</v>
+      </c>
+      <c r="H206">
+        <v>5</v>
+      </c>
+      <c r="I206">
+        <v>5</v>
+      </c>
+      <c r="J206">
+        <v>4</v>
+      </c>
+      <c r="K206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>5</v>
+      </c>
+      <c r="B207">
+        <v>5</v>
+      </c>
+      <c r="C207">
+        <v>4</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+      <c r="E207">
+        <v>5</v>
+      </c>
+      <c r="F207">
+        <v>5</v>
+      </c>
+      <c r="G207">
+        <v>5</v>
+      </c>
+      <c r="H207">
+        <v>5</v>
+      </c>
+      <c r="I207">
+        <v>3</v>
+      </c>
+      <c r="J207">
+        <v>3</v>
+      </c>
+      <c r="K207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>4</v>
+      </c>
+      <c r="D208">
+        <v>4</v>
+      </c>
+      <c r="E208">
+        <v>5</v>
+      </c>
+      <c r="F208">
+        <v>4</v>
+      </c>
+      <c r="G208">
+        <v>4</v>
+      </c>
+      <c r="H208">
+        <v>4</v>
+      </c>
+      <c r="K208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>5</v>
+      </c>
+      <c r="E209">
+        <v>5</v>
+      </c>
+      <c r="G209">
+        <v>5</v>
+      </c>
+      <c r="H209">
+        <v>5</v>
+      </c>
+      <c r="I209">
+        <v>5</v>
+      </c>
+      <c r="K209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>5</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+      <c r="E210">
+        <v>5</v>
+      </c>
+      <c r="G210">
+        <v>4</v>
+      </c>
+      <c r="H210">
+        <v>4</v>
+      </c>
+      <c r="I210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>5</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+      <c r="D211">
+        <v>4</v>
+      </c>
+      <c r="E211">
+        <v>5</v>
+      </c>
+      <c r="F211">
+        <v>4</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+      <c r="H211">
+        <v>3</v>
+      </c>
+      <c r="I211">
+        <v>4</v>
+      </c>
+      <c r="J211">
+        <v>3</v>
+      </c>
+      <c r="K211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>5</v>
+      </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212">
+        <v>5</v>
+      </c>
+      <c r="F212">
+        <v>5</v>
+      </c>
+      <c r="G212">
+        <v>4</v>
+      </c>
+      <c r="H212">
+        <v>4</v>
+      </c>
+      <c r="I212">
+        <v>3</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>5</v>
+      </c>
+      <c r="D213">
+        <v>5</v>
+      </c>
+      <c r="E213">
+        <v>5</v>
+      </c>
+      <c r="F213">
+        <v>5</v>
+      </c>
+      <c r="G213">
+        <v>2</v>
+      </c>
+      <c r="H213">
+        <v>2</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213">
+        <v>5</v>
+      </c>
+      <c r="K213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>4</v>
+      </c>
+      <c r="B214">
+        <v>4</v>
+      </c>
+      <c r="C214">
+        <v>4</v>
+      </c>
+      <c r="D214">
+        <v>4</v>
+      </c>
+      <c r="E214">
+        <v>4</v>
+      </c>
+      <c r="F214">
+        <v>4</v>
+      </c>
+      <c r="G214">
+        <v>4</v>
+      </c>
+      <c r="H214">
+        <v>4</v>
+      </c>
+      <c r="I214">
+        <v>4</v>
+      </c>
+      <c r="J214">
+        <v>4</v>
+      </c>
+      <c r="K214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215">
+        <v>3</v>
+      </c>
+      <c r="G215">
+        <v>3</v>
+      </c>
+      <c r="H215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>4</v>
+      </c>
+      <c r="B216">
+        <v>4</v>
+      </c>
+      <c r="C216">
+        <v>4</v>
+      </c>
+      <c r="D216">
+        <v>4</v>
+      </c>
+      <c r="E216">
+        <v>4</v>
+      </c>
+      <c r="F216">
+        <v>4</v>
+      </c>
+      <c r="G216">
+        <v>4</v>
+      </c>
+      <c r="H216">
+        <v>4</v>
+      </c>
+      <c r="I216">
+        <v>4</v>
+      </c>
+      <c r="J216">
+        <v>4</v>
+      </c>
+      <c r="K216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>4</v>
+      </c>
+      <c r="B217">
+        <v>4</v>
+      </c>
+      <c r="E217">
+        <v>5</v>
+      </c>
+      <c r="H217">
+        <v>4</v>
+      </c>
+      <c r="I217">
+        <v>4</v>
+      </c>
+      <c r="J217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>5</v>
+      </c>
+      <c r="B218">
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>5</v>
+      </c>
+      <c r="D218">
+        <v>5</v>
+      </c>
+      <c r="E218">
+        <v>5</v>
+      </c>
+      <c r="F218">
+        <v>4</v>
+      </c>
+      <c r="G218">
+        <v>3</v>
+      </c>
+      <c r="H218">
+        <v>4</v>
+      </c>
+      <c r="I218">
+        <v>3</v>
+      </c>
+      <c r="J218">
+        <v>4</v>
+      </c>
+      <c r="K218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>5</v>
+      </c>
+      <c r="B219">
+        <v>5</v>
+      </c>
+      <c r="C219">
+        <v>5</v>
+      </c>
+      <c r="D219">
+        <v>5</v>
+      </c>
+      <c r="E219">
+        <v>5</v>
+      </c>
+      <c r="F219">
+        <v>5</v>
+      </c>
+      <c r="G219">
+        <v>5</v>
+      </c>
+      <c r="H219">
+        <v>3</v>
+      </c>
+      <c r="I219">
+        <v>3</v>
+      </c>
+      <c r="J219">
+        <v>2</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>4</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220">
+        <v>3</v>
+      </c>
+      <c r="E220">
+        <v>4</v>
+      </c>
+      <c r="F220">
+        <v>3</v>
+      </c>
+      <c r="G220">
+        <v>2</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="I220">
+        <v>3</v>
+      </c>
+      <c r="J220">
+        <v>3</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>4</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+      <c r="D221">
+        <v>4</v>
+      </c>
+      <c r="E221">
+        <v>4</v>
+      </c>
+      <c r="F221">
+        <v>4</v>
+      </c>
+      <c r="G221">
+        <v>4</v>
+      </c>
+      <c r="H221">
+        <v>3</v>
+      </c>
+      <c r="I221">
+        <v>3</v>
+      </c>
+      <c r="J221">
+        <v>3</v>
+      </c>
+      <c r="K221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>4</v>
+      </c>
+      <c r="F223">
+        <v>4</v>
+      </c>
+      <c r="H223">
+        <v>4</v>
+      </c>
+      <c r="I223">
+        <v>4</v>
+      </c>
+      <c r="J223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>5</v>
+      </c>
+      <c r="B224">
+        <v>5</v>
+      </c>
+      <c r="C224">
+        <v>4</v>
+      </c>
+      <c r="D224">
+        <v>4</v>
+      </c>
+      <c r="E224">
+        <v>4</v>
+      </c>
+      <c r="F224">
+        <v>3</v>
+      </c>
+      <c r="G224">
+        <v>5</v>
+      </c>
+      <c r="H224">
+        <v>5</v>
+      </c>
+      <c r="I224">
+        <v>3</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>3</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>4</v>
+      </c>
+      <c r="E225">
+        <v>4</v>
+      </c>
+      <c r="F225">
+        <v>2</v>
+      </c>
+      <c r="G225">
+        <v>3</v>
+      </c>
+      <c r="H225">
+        <v>3</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225">
+        <v>2</v>
+      </c>
+      <c r="K225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>4</v>
+      </c>
+      <c r="B226">
+        <v>4</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+      <c r="E226">
+        <v>5</v>
+      </c>
+      <c r="F226">
+        <v>5</v>
+      </c>
+      <c r="G226">
+        <v>5</v>
+      </c>
+      <c r="H226">
+        <v>5</v>
+      </c>
+      <c r="I226">
+        <v>5</v>
+      </c>
+      <c r="J226">
+        <v>5</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>5</v>
+      </c>
+      <c r="B227">
+        <v>5</v>
+      </c>
+      <c r="C227">
+        <v>5</v>
+      </c>
+      <c r="D227">
+        <v>5</v>
+      </c>
+      <c r="E227">
+        <v>5</v>
+      </c>
+      <c r="F227">
+        <v>5</v>
+      </c>
+      <c r="G227">
+        <v>4</v>
+      </c>
+      <c r="H227">
+        <v>3</v>
+      </c>
+      <c r="I227">
+        <v>3</v>
+      </c>
+      <c r="J227">
+        <v>5</v>
+      </c>
+      <c r="K227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>5</v>
+      </c>
+      <c r="B228">
+        <v>5</v>
+      </c>
+      <c r="C228">
+        <v>5</v>
+      </c>
+      <c r="D228">
+        <v>5</v>
+      </c>
+      <c r="E228">
+        <v>5</v>
+      </c>
+      <c r="F228">
+        <v>4</v>
+      </c>
+      <c r="G228">
+        <v>3</v>
+      </c>
+      <c r="H228">
+        <v>3</v>
+      </c>
+      <c r="I228">
+        <v>3</v>
+      </c>
+      <c r="J228">
+        <v>3</v>
+      </c>
+      <c r="K228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>3</v>
+      </c>
+      <c r="B229">
+        <v>4</v>
+      </c>
+      <c r="C229">
+        <v>5</v>
+      </c>
+      <c r="H229">
+        <v>5</v>
+      </c>
+      <c r="K229">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>5</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>5</v>
+      </c>
+      <c r="D230">
+        <v>5</v>
+      </c>
+      <c r="E230">
+        <v>5</v>
+      </c>
+      <c r="H230">
+        <v>3</v>
+      </c>
+      <c r="K230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>5</v>
+      </c>
+      <c r="B231">
+        <v>5</v>
+      </c>
+      <c r="C231">
+        <v>5</v>
+      </c>
+      <c r="E231">
+        <v>5</v>
+      </c>
+      <c r="F231">
+        <v>5</v>
+      </c>
+      <c r="I231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>5</v>
+      </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
+      <c r="E232">
+        <v>5</v>
+      </c>
+      <c r="G232">
+        <v>4</v>
+      </c>
+      <c r="I232">
+        <v>3</v>
+      </c>
+      <c r="K232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>5</v>
+      </c>
+      <c r="B233">
+        <v>5</v>
+      </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
+      <c r="D233">
+        <v>5</v>
+      </c>
+      <c r="E233">
+        <v>5</v>
+      </c>
+      <c r="F233">
+        <v>5</v>
+      </c>
+      <c r="G233">
+        <v>3</v>
+      </c>
+      <c r="H233">
+        <v>3</v>
+      </c>
+      <c r="I233">
+        <v>5</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>5</v>
+      </c>
+      <c r="B234">
+        <v>5</v>
+      </c>
+      <c r="C234">
+        <v>4</v>
+      </c>
+      <c r="D234">
+        <v>5</v>
+      </c>
+      <c r="E234">
+        <v>5</v>
+      </c>
+      <c r="F234">
+        <v>5</v>
+      </c>
+      <c r="G234">
+        <v>3</v>
+      </c>
+      <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>5</v>
+      </c>
+      <c r="B235">
+        <v>5</v>
+      </c>
+      <c r="C235">
+        <v>5</v>
+      </c>
+      <c r="D235">
+        <v>5</v>
+      </c>
+      <c r="E235">
+        <v>5</v>
+      </c>
+      <c r="F235">
+        <v>5</v>
+      </c>
+      <c r="G235">
+        <v>5</v>
+      </c>
+      <c r="H235">
+        <v>5</v>
+      </c>
+      <c r="I235">
+        <v>5</v>
+      </c>
+      <c r="J235">
+        <v>5</v>
+      </c>
+      <c r="K235">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>4</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>5</v>
+      </c>
+      <c r="D236">
+        <v>5</v>
+      </c>
+      <c r="E236">
+        <v>4</v>
+      </c>
+      <c r="F236">
+        <v>3</v>
+      </c>
+      <c r="G236">
+        <v>5</v>
+      </c>
+      <c r="H236">
+        <v>3</v>
+      </c>
+      <c r="I236">
+        <v>3</v>
+      </c>
+      <c r="J236">
+        <v>5</v>
+      </c>
+      <c r="K236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>4</v>
+      </c>
+      <c r="B237">
+        <v>5</v>
+      </c>
+      <c r="C237">
+        <v>5</v>
+      </c>
+      <c r="D237">
+        <v>5</v>
+      </c>
+      <c r="E237">
+        <v>5</v>
+      </c>
+      <c r="F237">
+        <v>4</v>
+      </c>
+      <c r="G237">
+        <v>4</v>
+      </c>
+      <c r="H237">
+        <v>4</v>
+      </c>
+      <c r="I237">
+        <v>4</v>
+      </c>
+      <c r="J237">
+        <v>4</v>
+      </c>
+      <c r="K237">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>3</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>5</v>
+      </c>
+      <c r="D238">
+        <v>3</v>
+      </c>
+      <c r="E238">
+        <v>4</v>
+      </c>
+      <c r="K238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>4</v>
+      </c>
+      <c r="D239">
+        <v>5</v>
+      </c>
+      <c r="E239">
+        <v>5</v>
+      </c>
+      <c r="H239">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>5</v>
+      </c>
+      <c r="B240">
+        <v>5</v>
+      </c>
+      <c r="C240">
+        <v>5</v>
+      </c>
+      <c r="D240">
+        <v>5</v>
+      </c>
+      <c r="E240">
+        <v>5</v>
+      </c>
+      <c r="F240">
+        <v>4</v>
+      </c>
+      <c r="G240">
+        <v>5</v>
+      </c>
+      <c r="H240">
+        <v>5</v>
+      </c>
+      <c r="I240">
+        <v>4</v>
+      </c>
+      <c r="K240">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <v>5</v>
+      </c>
+      <c r="G241">
+        <v>4</v>
+      </c>
+      <c r="H241">
+        <v>4</v>
+      </c>
+      <c r="I241">
+        <v>4</v>
+      </c>
+      <c r="K241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>4</v>
+      </c>
+      <c r="B242">
+        <v>4</v>
+      </c>
+      <c r="C242">
+        <v>4</v>
+      </c>
+      <c r="D242">
+        <v>5</v>
+      </c>
+      <c r="E242">
+        <v>5</v>
+      </c>
+      <c r="F242">
+        <v>4</v>
+      </c>
+      <c r="G242">
+        <v>3</v>
+      </c>
+      <c r="H242">
+        <v>5</v>
+      </c>
+      <c r="I242">
+        <v>5</v>
+      </c>
+      <c r="J242">
+        <v>5</v>
+      </c>
+      <c r="K242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>5</v>
+      </c>
+      <c r="B243">
+        <v>5</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+      <c r="D243">
+        <v>5</v>
+      </c>
+      <c r="E243">
+        <v>5</v>
+      </c>
+      <c r="F243">
+        <v>5</v>
+      </c>
+      <c r="G243">
+        <v>3</v>
+      </c>
+      <c r="H243">
+        <v>5</v>
+      </c>
+      <c r="I243">
+        <v>5</v>
+      </c>
+      <c r="J243">
+        <v>2</v>
+      </c>
+      <c r="K243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>5</v>
+      </c>
+      <c r="B244">
+        <v>5</v>
+      </c>
+      <c r="C244">
+        <v>4</v>
+      </c>
+      <c r="D244">
+        <v>4</v>
+      </c>
+      <c r="E244">
+        <v>5</v>
+      </c>
+      <c r="F244">
+        <v>4</v>
+      </c>
+      <c r="G244">
+        <v>4</v>
+      </c>
+      <c r="H244">
+        <v>4</v>
+      </c>
+      <c r="I244">
+        <v>3</v>
+      </c>
+      <c r="J244">
+        <v>3</v>
+      </c>
+      <c r="K244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>5</v>
+      </c>
+      <c r="B245">
+        <v>5</v>
+      </c>
+      <c r="C245">
+        <v>5</v>
+      </c>
+      <c r="D245">
+        <v>5</v>
+      </c>
+      <c r="E245">
+        <v>5</v>
+      </c>
+      <c r="F245">
+        <v>5</v>
+      </c>
+      <c r="G245">
+        <v>3</v>
+      </c>
+      <c r="H245">
+        <v>3</v>
+      </c>
+      <c r="I245">
+        <v>5</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>4</v>
+      </c>
+      <c r="B246">
+        <v>4</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+      <c r="D246">
+        <v>4</v>
+      </c>
+      <c r="E246">
+        <v>4</v>
+      </c>
+      <c r="F246">
+        <v>4</v>
+      </c>
+      <c r="G246">
+        <v>3</v>
+      </c>
+      <c r="H246">
+        <v>3</v>
+      </c>
+      <c r="I246">
+        <v>3</v>
+      </c>
+      <c r="J246">
+        <v>3</v>
+      </c>
+      <c r="K246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>4</v>
+      </c>
+      <c r="E247">
+        <v>4</v>
+      </c>
+      <c r="J247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>5</v>
+      </c>
+      <c r="B248">
+        <v>5</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+      <c r="D248">
+        <v>5</v>
+      </c>
+      <c r="E248">
+        <v>5</v>
+      </c>
+      <c r="F248">
+        <v>5</v>
+      </c>
+      <c r="G248">
+        <v>2</v>
+      </c>
+      <c r="H248">
+        <v>4</v>
+      </c>
+      <c r="I248">
+        <v>3</v>
+      </c>
+      <c r="J248">
+        <v>4</v>
+      </c>
+      <c r="K248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>4</v>
+      </c>
+      <c r="B249">
+        <v>5</v>
+      </c>
+      <c r="E249">
+        <v>5</v>
+      </c>
+      <c r="H249">
+        <v>3</v>
+      </c>
+      <c r="J249">
+        <v>5</v>
+      </c>
+      <c r="K249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <v>5</v>
+      </c>
+      <c r="F250">
+        <v>4</v>
+      </c>
+      <c r="K250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>4</v>
+      </c>
+      <c r="B251">
+        <v>5</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+      <c r="D251">
+        <v>3</v>
+      </c>
+      <c r="E251">
+        <v>3</v>
+      </c>
+      <c r="F251">
+        <v>4</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>5</v>
+      </c>
+      <c r="B252">
+        <v>5</v>
+      </c>
+      <c r="C252">
+        <v>5</v>
+      </c>
+      <c r="D252">
+        <v>5</v>
+      </c>
+      <c r="E252">
+        <v>5</v>
+      </c>
+      <c r="F252">
+        <v>5</v>
+      </c>
+      <c r="G252">
+        <v>3</v>
+      </c>
+      <c r="H252">
+        <v>3</v>
+      </c>
+      <c r="I252">
+        <v>3</v>
+      </c>
+      <c r="J252">
+        <v>3</v>
+      </c>
+      <c r="K252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>4</v>
+      </c>
+      <c r="B253">
+        <v>4</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+      <c r="D253">
+        <v>4</v>
+      </c>
+      <c r="E253">
+        <v>4</v>
+      </c>
+      <c r="F253">
+        <v>4</v>
+      </c>
+      <c r="G253">
+        <v>4</v>
+      </c>
+      <c r="H253">
+        <v>4</v>
+      </c>
+      <c r="I253">
+        <v>3</v>
+      </c>
+      <c r="J253">
+        <v>3</v>
+      </c>
+      <c r="K253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>5</v>
+      </c>
+      <c r="F254">
+        <v>5</v>
+      </c>
+      <c r="K254">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <v>4</v>
+      </c>
+      <c r="E255">
+        <v>4</v>
+      </c>
+      <c r="H255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>5</v>
+      </c>
+      <c r="B256">
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <v>5</v>
+      </c>
+      <c r="D256">
+        <v>5</v>
+      </c>
+      <c r="E256">
+        <v>5</v>
+      </c>
+      <c r="F256">
+        <v>5</v>
+      </c>
+      <c r="G256">
+        <v>4</v>
+      </c>
+      <c r="H256">
+        <v>5</v>
+      </c>
+      <c r="I256">
+        <v>5</v>
+      </c>
+      <c r="J256">
+        <v>5</v>
+      </c>
+      <c r="K256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>5</v>
+      </c>
+      <c r="B257">
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <v>4</v>
+      </c>
+      <c r="D257">
+        <v>5</v>
+      </c>
+      <c r="E257">
+        <v>4</v>
+      </c>
+      <c r="F257">
+        <v>5</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>5</v>
+      </c>
+      <c r="B258">
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <v>4</v>
+      </c>
+      <c r="D258">
+        <v>5</v>
+      </c>
+      <c r="E258">
+        <v>5</v>
+      </c>
+      <c r="F258">
+        <v>5</v>
+      </c>
+      <c r="G258">
+        <v>4</v>
+      </c>
+      <c r="H258">
+        <v>4</v>
+      </c>
+      <c r="I258">
+        <v>2</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>4</v>
+      </c>
+      <c r="B259">
+        <v>4</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+      <c r="D259">
+        <v>4</v>
+      </c>
+      <c r="E259">
+        <v>4</v>
+      </c>
+      <c r="F259">
+        <v>4</v>
+      </c>
+      <c r="H259">
+        <v>3</v>
+      </c>
+      <c r="I259">
+        <v>2</v>
+      </c>
+      <c r="J259">
+        <v>2</v>
+      </c>
+      <c r="K259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>5</v>
+      </c>
+      <c r="B260">
+        <v>5</v>
+      </c>
+      <c r="D260">
+        <v>5</v>
+      </c>
+      <c r="E260">
+        <v>5</v>
+      </c>
+      <c r="F260">
+        <v>5</v>
+      </c>
+      <c r="G260">
+        <v>4</v>
+      </c>
+      <c r="H260">
+        <v>5</v>
+      </c>
+      <c r="I260">
+        <v>4</v>
+      </c>
+      <c r="J260">
+        <v>3</v>
+      </c>
+      <c r="K260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>5</v>
+      </c>
+      <c r="B261">
+        <v>5</v>
+      </c>
+      <c r="C261">
+        <v>5</v>
+      </c>
+      <c r="D261">
+        <v>5</v>
+      </c>
+      <c r="E261">
+        <v>5</v>
+      </c>
+      <c r="F261">
+        <v>5</v>
+      </c>
+      <c r="K261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>5</v>
+      </c>
+      <c r="D262">
+        <v>5</v>
+      </c>
+      <c r="E262">
+        <v>5</v>
+      </c>
+      <c r="F262">
+        <v>5</v>
+      </c>
+      <c r="H262">
+        <v>5</v>
+      </c>
+      <c r="I262">
+        <v>5</v>
+      </c>
+      <c r="J262">
+        <v>5</v>
+      </c>
+      <c r="K262">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>5</v>
+      </c>
+      <c r="B263">
+        <v>5</v>
+      </c>
+      <c r="C263">
+        <v>4</v>
+      </c>
+      <c r="D263">
+        <v>5</v>
+      </c>
+      <c r="E263">
+        <v>5</v>
+      </c>
+      <c r="F263">
+        <v>5</v>
+      </c>
+      <c r="H263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>5</v>
+      </c>
+      <c r="B264">
+        <v>5</v>
+      </c>
+      <c r="D264">
+        <v>5</v>
+      </c>
+      <c r="E264">
+        <v>5</v>
+      </c>
+      <c r="H264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>4</v>
+      </c>
+      <c r="B265">
+        <v>5</v>
+      </c>
+      <c r="C265">
+        <v>4</v>
+      </c>
+      <c r="D265">
+        <v>5</v>
+      </c>
+      <c r="E265">
+        <v>5</v>
+      </c>
+      <c r="F265">
+        <v>4</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>4</v>
+      </c>
+      <c r="J265">
+        <v>2</v>
+      </c>
+      <c r="K265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>4</v>
+      </c>
+      <c r="B266">
+        <v>4</v>
+      </c>
+      <c r="C266">
+        <v>4</v>
+      </c>
+      <c r="D266">
+        <v>4</v>
+      </c>
+      <c r="E266">
+        <v>4</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+      <c r="G266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>4</v>
+      </c>
+      <c r="H267">
+        <v>3</v>
+      </c>
+      <c r="I267">
+        <v>4</v>
+      </c>
+      <c r="J267">
+        <v>4</v>
+      </c>
+      <c r="K267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>4</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>4</v>
+      </c>
+      <c r="D268">
+        <v>5</v>
+      </c>
+      <c r="E268">
+        <v>5</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
+      </c>
+      <c r="G268">
+        <v>3</v>
+      </c>
+      <c r="H268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>5</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269">
+        <v>5</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+      <c r="E269">
+        <v>5</v>
+      </c>
+      <c r="F269">
+        <v>4</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>4</v>
+      </c>
+      <c r="I269">
+        <v>5</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+      <c r="K269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>4</v>
+      </c>
+      <c r="B270">
+        <v>4</v>
+      </c>
+      <c r="C270">
+        <v>4</v>
+      </c>
+      <c r="E270">
+        <v>4</v>
+      </c>
+      <c r="F270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>5</v>
+      </c>
+      <c r="B271">
+        <v>5</v>
+      </c>
+      <c r="C271">
+        <v>3</v>
+      </c>
+      <c r="D271">
+        <v>5</v>
+      </c>
+      <c r="E271">
+        <v>5</v>
+      </c>
+      <c r="F271">
+        <v>4</v>
+      </c>
+      <c r="G271">
+        <v>3</v>
+      </c>
+      <c r="H271">
+        <v>4</v>
+      </c>
+      <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271">
+        <v>3</v>
+      </c>
+      <c r="K271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272">
+        <v>3</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+      <c r="D272">
+        <v>5</v>
+      </c>
+      <c r="E272">
+        <v>5</v>
+      </c>
+      <c r="F272">
+        <v>3</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>3</v>
+      </c>
+      <c r="K272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <v>5</v>
+      </c>
+      <c r="J273">
+        <v>4</v>
+      </c>
+      <c r="K273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>5</v>
+      </c>
+      <c r="B274">
+        <v>5</v>
+      </c>
+      <c r="C274">
+        <v>5</v>
+      </c>
+      <c r="D274">
+        <v>5</v>
+      </c>
+      <c r="E274">
+        <v>5</v>
+      </c>
+      <c r="F274">
+        <v>5</v>
+      </c>
+      <c r="G274">
+        <v>5</v>
+      </c>
+      <c r="H274">
+        <v>5</v>
+      </c>
+      <c r="I274">
+        <v>5</v>
+      </c>
+      <c r="J274">
+        <v>5</v>
+      </c>
+      <c r="K274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E275">
+        <v>3</v>
+      </c>
+      <c r="F275">
+        <v>2</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>2</v>
+      </c>
+      <c r="I275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>5</v>
+      </c>
+      <c r="B276">
+        <v>5</v>
+      </c>
+      <c r="C276">
+        <v>5</v>
+      </c>
+      <c r="D276">
+        <v>5</v>
+      </c>
+      <c r="E276">
+        <v>5</v>
+      </c>
+      <c r="F276">
+        <v>5</v>
+      </c>
+      <c r="H276">
+        <v>5</v>
+      </c>
+      <c r="K276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>5</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+      <c r="D277">
+        <v>5</v>
+      </c>
+      <c r="E277">
+        <v>5</v>
+      </c>
+      <c r="F277">
+        <v>4</v>
+      </c>
+      <c r="G277">
+        <v>3</v>
+      </c>
+      <c r="H277">
+        <v>3</v>
+      </c>
+      <c r="I277">
+        <v>5</v>
+      </c>
+      <c r="J277">
+        <v>3</v>
+      </c>
+      <c r="K277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <v>4</v>
+      </c>
+      <c r="C278">
+        <v>4</v>
+      </c>
+      <c r="D278">
+        <v>5</v>
+      </c>
+      <c r="E278">
+        <v>4</v>
+      </c>
+      <c r="F278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>5</v>
+      </c>
+      <c r="B279">
+        <v>5</v>
+      </c>
+      <c r="C279">
+        <v>5</v>
+      </c>
+      <c r="D279">
+        <v>5</v>
+      </c>
+      <c r="E279">
+        <v>5</v>
+      </c>
+      <c r="F279">
+        <v>5</v>
+      </c>
+      <c r="G279">
+        <v>4</v>
+      </c>
+      <c r="H279">
+        <v>4</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>3</v>
+      </c>
+      <c r="K279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2</v>
+      </c>
+      <c r="B280">
+        <v>4</v>
+      </c>
+      <c r="C280">
+        <v>4</v>
+      </c>
+      <c r="D280">
+        <v>4</v>
+      </c>
+      <c r="E280">
+        <v>4</v>
+      </c>
+      <c r="F280">
+        <v>2</v>
+      </c>
+      <c r="G280">
+        <v>2</v>
+      </c>
+      <c r="H280">
+        <v>4</v>
+      </c>
+      <c r="I280">
+        <v>4</v>
+      </c>
+      <c r="J280">
+        <v>4</v>
+      </c>
+      <c r="K280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>5</v>
+      </c>
+      <c r="B281">
+        <v>5</v>
+      </c>
+      <c r="C281">
+        <v>4</v>
+      </c>
+      <c r="D281">
+        <v>5</v>
+      </c>
+      <c r="E281">
+        <v>5</v>
+      </c>
+      <c r="F281">
+        <v>4</v>
+      </c>
+      <c r="G281">
+        <v>2</v>
+      </c>
+      <c r="H281">
+        <v>4</v>
+      </c>
+      <c r="I281">
+        <v>5</v>
+      </c>
+      <c r="J281">
+        <v>3</v>
+      </c>
+      <c r="K281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>5</v>
+      </c>
+      <c r="B282">
+        <v>5</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+      <c r="D282">
+        <v>5</v>
+      </c>
+      <c r="E282">
+        <v>5</v>
+      </c>
+      <c r="F282">
+        <v>4</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282">
+        <v>2</v>
+      </c>
+      <c r="J282">
+        <v>2</v>
+      </c>
+      <c r="K282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>4</v>
+      </c>
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+      <c r="D283">
+        <v>4</v>
+      </c>
+      <c r="E283">
+        <v>4</v>
+      </c>
+      <c r="F283">
+        <v>2</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <v>5</v>
+      </c>
+      <c r="E284">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>5</v>
+      </c>
+      <c r="B285">
+        <v>5</v>
+      </c>
+      <c r="C285">
+        <v>5</v>
+      </c>
+      <c r="D285">
+        <v>5</v>
+      </c>
+      <c r="E285">
+        <v>5</v>
+      </c>
+      <c r="F285">
+        <v>5</v>
+      </c>
+      <c r="G285">
+        <v>5</v>
+      </c>
+      <c r="I285">
+        <v>5</v>
+      </c>
+      <c r="K285">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>5</v>
+      </c>
+      <c r="B286">
+        <v>4</v>
+      </c>
+      <c r="C286">
+        <v>5</v>
+      </c>
+      <c r="D286">
+        <v>5</v>
+      </c>
+      <c r="E286">
+        <v>5</v>
+      </c>
+      <c r="H286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>5</v>
+      </c>
+      <c r="B287">
+        <v>5</v>
+      </c>
+      <c r="C287">
+        <v>5</v>
+      </c>
+      <c r="D287">
+        <v>5</v>
+      </c>
+      <c r="E287">
+        <v>5</v>
+      </c>
+      <c r="F287">
+        <v>5</v>
+      </c>
+      <c r="G287">
+        <v>5</v>
+      </c>
+      <c r="H287">
+        <v>5</v>
+      </c>
+      <c r="I287">
+        <v>5</v>
+      </c>
+      <c r="J287">
+        <v>5</v>
+      </c>
+      <c r="K287">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <v>5</v>
+      </c>
+      <c r="C288">
+        <v>3</v>
+      </c>
+      <c r="D288">
+        <v>5</v>
+      </c>
+      <c r="E288">
+        <v>5</v>
+      </c>
+      <c r="F288">
+        <v>4</v>
+      </c>
+      <c r="H288">
+        <v>3</v>
+      </c>
+      <c r="I288">
+        <v>3</v>
+      </c>
+      <c r="J288">
+        <v>5</v>
+      </c>
+      <c r="K288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>5</v>
+      </c>
+      <c r="E289">
+        <v>5</v>
+      </c>
+      <c r="F289">
+        <v>5</v>
+      </c>
+      <c r="G289">
+        <v>5</v>
+      </c>
+      <c r="H289">
+        <v>5</v>
+      </c>
+      <c r="J289">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>4</v>
+      </c>
+      <c r="B290">
+        <v>5</v>
+      </c>
+      <c r="C290">
+        <v>4</v>
+      </c>
+      <c r="D290">
+        <v>5</v>
+      </c>
+      <c r="E290">
+        <v>5</v>
+      </c>
+      <c r="G290">
+        <v>3</v>
+      </c>
+      <c r="H290">
+        <v>3</v>
+      </c>
+      <c r="I290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>5</v>
+      </c>
+      <c r="B291">
+        <v>5</v>
+      </c>
+      <c r="C291">
+        <v>4</v>
+      </c>
+      <c r="D291">
+        <v>5</v>
+      </c>
+      <c r="E291">
+        <v>5</v>
+      </c>
+      <c r="F291">
+        <v>4</v>
+      </c>
+      <c r="H291">
+        <v>4</v>
+      </c>
+      <c r="I291">
+        <v>5</v>
+      </c>
+      <c r="J291">
+        <v>5</v>
+      </c>
+      <c r="K291">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <v>4</v>
+      </c>
+      <c r="D292">
+        <v>5</v>
+      </c>
+      <c r="E292">
+        <v>5</v>
+      </c>
+      <c r="H292">
+        <v>3</v>
+      </c>
+      <c r="I292">
+        <v>5</v>
+      </c>
+      <c r="J292">
+        <v>5</v>
+      </c>
+      <c r="K292">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>5</v>
+      </c>
+      <c r="B293">
+        <v>5</v>
+      </c>
+      <c r="C293">
+        <v>5</v>
+      </c>
+      <c r="D293">
+        <v>5</v>
+      </c>
+      <c r="E293">
+        <v>5</v>
+      </c>
+      <c r="F293">
+        <v>3</v>
+      </c>
+      <c r="G293">
+        <v>4</v>
+      </c>
+      <c r="H293">
+        <v>4</v>
+      </c>
+      <c r="I293">
+        <v>5</v>
+      </c>
+      <c r="J293">
+        <v>5</v>
+      </c>
+      <c r="K293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>5</v>
+      </c>
+      <c r="B294">
+        <v>3</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+      <c r="D294">
+        <v>4</v>
+      </c>
+      <c r="E294">
+        <v>5</v>
+      </c>
+      <c r="F294">
+        <v>4</v>
+      </c>
+      <c r="G294">
+        <v>4</v>
+      </c>
+      <c r="H294">
+        <v>4</v>
+      </c>
+      <c r="I294">
+        <v>4</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>4</v>
+      </c>
+      <c r="B295">
+        <v>4</v>
+      </c>
+      <c r="C295">
+        <v>4</v>
+      </c>
+      <c r="D295">
+        <v>5</v>
+      </c>
+      <c r="E295">
+        <v>5</v>
+      </c>
+      <c r="F295">
+        <v>4</v>
+      </c>
+      <c r="G295">
+        <v>2</v>
+      </c>
+      <c r="H295">
+        <v>4</v>
+      </c>
+      <c r="I295">
+        <v>4</v>
+      </c>
+      <c r="J295">
+        <v>1</v>
+      </c>
+      <c r="K295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D296">
+        <v>5</v>
+      </c>
+      <c r="E296">
+        <v>5</v>
+      </c>
+      <c r="G296">
+        <v>2</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>5</v>
+      </c>
+      <c r="B297">
+        <v>5</v>
+      </c>
+      <c r="C297">
+        <v>4</v>
+      </c>
+      <c r="D297">
+        <v>4</v>
+      </c>
+      <c r="E297">
+        <v>5</v>
+      </c>
+      <c r="H297">
+        <v>4</v>
+      </c>
+      <c r="I297">
+        <v>5</v>
+      </c>
+      <c r="J297">
+        <v>5</v>
+      </c>
+      <c r="K297">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>5</v>
+      </c>
+      <c r="B298">
+        <v>5</v>
+      </c>
+      <c r="C298">
+        <v>5</v>
+      </c>
+      <c r="D298">
+        <v>5</v>
+      </c>
+      <c r="E298">
+        <v>5</v>
+      </c>
+      <c r="F298">
+        <v>5</v>
+      </c>
+      <c r="G298">
+        <v>5</v>
+      </c>
+      <c r="H298">
+        <v>5</v>
+      </c>
+      <c r="I298">
+        <v>5</v>
+      </c>
+      <c r="J298">
+        <v>5</v>
+      </c>
+      <c r="K298">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>4</v>
+      </c>
+      <c r="B299">
+        <v>4</v>
+      </c>
+      <c r="D299">
+        <v>4</v>
+      </c>
+      <c r="E299">
+        <v>4</v>
+      </c>
+      <c r="H299">
+        <v>4</v>
+      </c>
+      <c r="I299">
+        <v>5</v>
+      </c>
+      <c r="J299">
+        <v>5</v>
+      </c>
+      <c r="K299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>4</v>
+      </c>
+      <c r="B300">
+        <v>5</v>
+      </c>
+      <c r="C300">
+        <v>5</v>
+      </c>
+      <c r="D300">
+        <v>4</v>
+      </c>
+      <c r="E300">
+        <v>5</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>5</v>
+      </c>
+      <c r="H300">
+        <v>5</v>
+      </c>
+      <c r="I300">
+        <v>4</v>
+      </c>
+      <c r="J300">
+        <v>3</v>
+      </c>
+      <c r="K300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>4</v>
+      </c>
+      <c r="E301">
+        <v>5</v>
+      </c>
+      <c r="F301">
+        <v>5</v>
+      </c>
+      <c r="H301">
+        <v>3</v>
+      </c>
+      <c r="K301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>5</v>
+      </c>
+      <c r="B302">
+        <v>5</v>
+      </c>
+      <c r="D302">
+        <v>5</v>
+      </c>
+      <c r="E302">
+        <v>5</v>
+      </c>
+      <c r="F302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>4</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>3</v>
+      </c>
+      <c r="D303">
+        <v>4</v>
+      </c>
+      <c r="E303">
+        <v>4</v>
+      </c>
+      <c r="F303">
+        <v>3</v>
+      </c>
+      <c r="G303">
+        <v>2</v>
+      </c>
+      <c r="H303">
+        <v>4</v>
+      </c>
+      <c r="I303">
+        <v>4</v>
+      </c>
+      <c r="J303">
+        <v>4</v>
+      </c>
+      <c r="K303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>5</v>
+      </c>
+      <c r="B304">
+        <v>5</v>
+      </c>
+      <c r="C304">
+        <v>5</v>
+      </c>
+      <c r="D304">
+        <v>5</v>
+      </c>
+      <c r="E304">
+        <v>5</v>
+      </c>
+      <c r="F304">
+        <v>5</v>
+      </c>
+      <c r="G304">
+        <v>5</v>
+      </c>
+      <c r="H304">
+        <v>5</v>
+      </c>
+      <c r="I304">
+        <v>5</v>
+      </c>
+      <c r="J304">
+        <v>5</v>
+      </c>
+      <c r="K304">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>4</v>
+      </c>
+      <c r="B305">
+        <v>4</v>
+      </c>
+      <c r="C305">
+        <v>4</v>
+      </c>
+      <c r="D305">
+        <v>4</v>
+      </c>
+      <c r="E305">
+        <v>4</v>
+      </c>
+      <c r="F305">
+        <v>4</v>
+      </c>
+      <c r="G305">
+        <v>3</v>
+      </c>
+      <c r="H305">
+        <v>2</v>
+      </c>
+      <c r="I305">
+        <v>2</v>
+      </c>
+      <c r="J305">
+        <v>2</v>
+      </c>
+      <c r="K305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D306">
+        <v>4</v>
+      </c>
+      <c r="E306">
+        <v>4</v>
+      </c>
+      <c r="F306">
+        <v>3</v>
+      </c>
+      <c r="H306">
+        <v>3</v>
+      </c>
+      <c r="I306">
+        <v>3</v>
+      </c>
+      <c r="K306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>5</v>
+      </c>
+      <c r="F307">
+        <v>5</v>
+      </c>
+      <c r="G307">
+        <v>3</v>
+      </c>
+      <c r="H307">
+        <v>4</v>
+      </c>
+      <c r="I307">
+        <v>4</v>
+      </c>
+      <c r="J307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>5</v>
+      </c>
+      <c r="B308">
+        <v>5</v>
+      </c>
+      <c r="C308">
+        <v>5</v>
+      </c>
+      <c r="D308">
+        <v>5</v>
+      </c>
+      <c r="E308">
+        <v>5</v>
+      </c>
+      <c r="F308">
+        <v>4</v>
+      </c>
+      <c r="G308">
+        <v>3</v>
+      </c>
+      <c r="H308">
+        <v>4</v>
+      </c>
+      <c r="I308">
+        <v>4</v>
+      </c>
+      <c r="J308">
+        <v>4</v>
+      </c>
+      <c r="K308">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>4</v>
+      </c>
+      <c r="B309">
+        <v>4</v>
+      </c>
+      <c r="C309">
+        <v>4</v>
+      </c>
+      <c r="D309">
+        <v>5</v>
+      </c>
+      <c r="E309">
+        <v>5</v>
+      </c>
+      <c r="F309">
+        <v>4</v>
+      </c>
+      <c r="G309">
+        <v>3</v>
+      </c>
+      <c r="H309">
+        <v>3</v>
+      </c>
+      <c r="I309">
+        <v>3</v>
+      </c>
+      <c r="J309">
+        <v>3</v>
+      </c>
+      <c r="K309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>5</v>
+      </c>
+      <c r="B310">
+        <v>5</v>
+      </c>
+      <c r="C310">
+        <v>4</v>
+      </c>
+      <c r="D310">
+        <v>4</v>
+      </c>
+      <c r="E310">
+        <v>5</v>
+      </c>
+      <c r="F310">
+        <v>5</v>
+      </c>
+      <c r="G310">
+        <v>4</v>
+      </c>
+      <c r="H310">
+        <v>4</v>
+      </c>
+      <c r="I310">
+        <v>4</v>
+      </c>
+      <c r="J310">
+        <v>5</v>
+      </c>
+      <c r="K310">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>3</v>
+      </c>
+      <c r="B311">
+        <v>4</v>
+      </c>
+      <c r="C311">
+        <v>4</v>
+      </c>
+      <c r="D311">
+        <v>4</v>
+      </c>
+      <c r="E311">
+        <v>4</v>
+      </c>
+      <c r="F311">
+        <v>2</v>
+      </c>
+      <c r="G311">
+        <v>2</v>
+      </c>
+      <c r="H311">
+        <v>3</v>
+      </c>
+      <c r="I311">
+        <v>4</v>
+      </c>
+      <c r="J311">
+        <v>3</v>
+      </c>
+      <c r="K311">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>